--- a/Parcel-Test-Features/Project-Startup/PARCEL_projectStartUP_NewPortfolio/src/testData/TestData_NewPortfolio.xlsx
+++ b/Parcel-Test-Features/Project-Startup/PARCEL_projectStartUP_NewPortfolio/src/testData/TestData_NewPortfolio.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15285" windowHeight="2505" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15285" windowHeight="2505" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Add Report Entries" sheetId="1" r:id="rId1"/>
@@ -192,16 +192,16 @@
     <t>Prop contact 2</t>
   </si>
   <si>
-    <t>New Team 27</t>
-  </si>
-  <si>
-    <t>Test Team 003</t>
-  </si>
-  <si>
-    <t>Automation Test 018</t>
-  </si>
-  <si>
-    <t>Automation Proj 0046</t>
+    <t>Automation Proj 0051</t>
+  </si>
+  <si>
+    <t>Automation Test 023</t>
+  </si>
+  <si>
+    <t>New Team 31</t>
+  </si>
+  <si>
+    <t>Test Team 006</t>
   </si>
 </sst>
 </file>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,10 +785,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +973,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>27</v>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
